--- a/Forecasts/Tuolumne.xlsx
+++ b/Forecasts/Tuolumne.xlsx
@@ -887,7 +887,7 @@
     <t xml:space="preserve">$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2020-08-19 13:51:42"</t>
+    <t xml:space="preserve">[1] "2020-08-20 05:36:35"</t>
   </si>
   <si>
     <t xml:space="preserve">$LEMMA.version</t>

--- a/Forecasts/Tuolumne.xlsx
+++ b/Forecasts/Tuolumne.xlsx
@@ -3713,7 +3713,7 @@
     <t xml:space="preserve">$time.of.run</t>
   </si>
   <si>
-    <t xml:space="preserve">[1] "2021-03-18 09:31:42"</t>
+    <t xml:space="preserve">[1] "2021-03-18 10:29:24"</t>
   </si>
   <si>
     <t xml:space="preserve">$LEMMA.version</t>
